--- a/data/input/inputtest.xlsx
+++ b/data/input/inputtest.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\baocaoketqua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Edmicro\Generate-reports\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC6FF8-78D1-41EF-9C74-C251A513F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="39">
   <si>
     <t>010101</t>
   </si>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +247,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -534,29 +623,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -588,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -620,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -652,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -684,9 +773,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>10923</v>
@@ -714,9 +803,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>10981</v>
@@ -746,8 +835,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
         <v>10927</v>
       </c>
@@ -776,9 +867,1746 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10923</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10981</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10927</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B13">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B19">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B25">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B31">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B37">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B43">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B49">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B55">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B61">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/input/inputtest.xlsx
+++ b/data/input/inputtest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\baocaoketqua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App\baocaoketqua\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC6FF8-78D1-41EF-9C74-C251A513F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623452FD-DF68-4573-9119-A4A4E410D343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="207">
   <si>
     <t>010101</t>
   </si>
@@ -36,24 +36,6 @@
     <t>Đăng</t>
   </si>
   <si>
-    <t>010921</t>
-  </si>
-  <si>
-    <t>Phạm Trần Thuỷ</t>
-  </si>
-  <si>
-    <t>Tiên</t>
-  </si>
-  <si>
-    <t>010922</t>
-  </si>
-  <si>
-    <t>Chung Minh</t>
-  </si>
-  <si>
-    <t>Tiến</t>
-  </si>
-  <si>
     <t>Trường</t>
   </si>
   <si>
@@ -69,12 +51,6 @@
     <t>BBCBCCDABDCCAECCDBDAADBEB</t>
   </si>
   <si>
-    <t>BBCBCCCEBBEBAAABBECCCCDDC</t>
-  </si>
-  <si>
-    <t>BBCBCCDABDCCAECCDBDCDDBBB</t>
-  </si>
-  <si>
     <t>SBD</t>
   </si>
   <si>
@@ -90,21 +66,9 @@
     <t>3A0</t>
   </si>
   <si>
-    <t>5A1</t>
-  </si>
-  <si>
-    <t>5E3</t>
-  </si>
-  <si>
     <t>Tiểu học, THCS &amp; THPT Ngôi Sao Hà Nội - Hoàng Mai</t>
   </si>
   <si>
-    <t>Tiểu học Archimedes Academy</t>
-  </si>
-  <si>
-    <t>Tiểu học và THCS FPT Đà Nẵng</t>
-  </si>
-  <si>
     <t>Tên đăng nhập</t>
   </si>
   <si>
@@ -117,31 +81,571 @@
     <t>09112015</t>
   </si>
   <si>
-    <t>AMC82505054811550</t>
-  </si>
-  <si>
-    <t>06052014</t>
-  </si>
-  <si>
-    <t>AMC82505054856789</t>
-  </si>
-  <si>
-    <t>26042014</t>
-  </si>
-  <si>
-    <t>Chung Văn</t>
-  </si>
-  <si>
-    <t>…......................</t>
-  </si>
-  <si>
     <t>id trường</t>
   </si>
   <si>
-    <t>5E6</t>
-  </si>
-  <si>
-    <t>Tin</t>
+    <t>010102</t>
+  </si>
+  <si>
+    <t>Võ Viết Gia</t>
+  </si>
+  <si>
+    <t>Hy</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>Tiểu học Lương Định Của</t>
+  </si>
+  <si>
+    <t>AMC82505054892073</t>
+  </si>
+  <si>
+    <t>25032016</t>
+  </si>
+  <si>
+    <t>BBCBDCBEBACBECACBCABBEACE</t>
+  </si>
+  <si>
+    <t>010103</t>
+  </si>
+  <si>
+    <t>Mã Đăng</t>
+  </si>
+  <si>
+    <t>Khôi</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tiểu học Minh Đạo</t>
+  </si>
+  <si>
+    <t>AMC82505054802865</t>
+  </si>
+  <si>
+    <t>09042016</t>
+  </si>
+  <si>
+    <t>BBBBCCDABDCDCECCBEEADBBCA</t>
+  </si>
+  <si>
+    <t>010104</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Hải</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>Tiểu Học Nguyễn Bỉnh Khiêm</t>
+  </si>
+  <si>
+    <t>AMC82505054825575</t>
+  </si>
+  <si>
+    <t>30102015</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>010105</t>
+  </si>
+  <si>
+    <t>Đỗ Hà</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>Tiểu học Cát Linh</t>
+  </si>
+  <si>
+    <t>AMC82505054822409</t>
+  </si>
+  <si>
+    <t>07112015</t>
+  </si>
+  <si>
+    <t>BBCBDCDABDEBAEACDBAABCCEB</t>
+  </si>
+  <si>
+    <t>010106</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Phúc</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>Tiểu học Khương Mai</t>
+  </si>
+  <si>
+    <t>AMC82505054891535</t>
+  </si>
+  <si>
+    <t>02102015</t>
+  </si>
+  <si>
+    <t>010107</t>
+  </si>
+  <si>
+    <t>Nguyễn Cảnh</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Tiểu học Hoàng Minh Đạo</t>
+  </si>
+  <si>
+    <t>AMC82505054801735</t>
+  </si>
+  <si>
+    <t>09052015</t>
+  </si>
+  <si>
+    <t>BCCBCCEEBCDABEBEABBCCDEDA</t>
+  </si>
+  <si>
+    <t>010108</t>
+  </si>
+  <si>
+    <t>Trần Thái</t>
+  </si>
+  <si>
+    <t>Tiểu học Bàu Sen</t>
+  </si>
+  <si>
+    <t>AMC82505054828420</t>
+  </si>
+  <si>
+    <t>12102015</t>
+  </si>
+  <si>
+    <t>BBCBDEDCAECDBCAACBAAABDEB</t>
+  </si>
+  <si>
+    <t>010109</t>
+  </si>
+  <si>
+    <t>Trần Thiên</t>
+  </si>
+  <si>
+    <t>Ân</t>
+  </si>
+  <si>
+    <t>4A3</t>
+  </si>
+  <si>
+    <t>Tiểu học Đô thị Sài Đồng</t>
+  </si>
+  <si>
+    <t>AMC82505054833853</t>
+  </si>
+  <si>
+    <t>06022015</t>
+  </si>
+  <si>
+    <t>010110</t>
+  </si>
+  <si>
+    <t>Đàm Phúc</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>Tiểu học Tây Úc</t>
+  </si>
+  <si>
+    <t>AMC82505054824363</t>
+  </si>
+  <si>
+    <t>27012015</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>Phạm Lê Ngọc</t>
+  </si>
+  <si>
+    <t>Tiểu học An Bình</t>
+  </si>
+  <si>
+    <t>AMC82505054898070</t>
+  </si>
+  <si>
+    <t>05012015</t>
+  </si>
+  <si>
+    <t>010112</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>Tiểu học Hùng Thắng</t>
+  </si>
+  <si>
+    <t>AMC82505054839507</t>
+  </si>
+  <si>
+    <t>21012015</t>
+  </si>
+  <si>
+    <t>ABBBADDEBABBDBCEDDECADEDC</t>
+  </si>
+  <si>
+    <t>010113</t>
+  </si>
+  <si>
+    <t>NGÔ ĐĂNG BẢO</t>
+  </si>
+  <si>
+    <t>ANH</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Tiểu học Bùi Văn Ba</t>
+  </si>
+  <si>
+    <t>AMC82505054819085</t>
+  </si>
+  <si>
+    <t>03052015</t>
+  </si>
+  <si>
+    <t>CBCBABEDBBADDBDAB.BBCDEAE</t>
+  </si>
+  <si>
+    <t>010114</t>
+  </si>
+  <si>
+    <t>Nguyễn Mỹ</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>Tiểu học Hồng Hà</t>
+  </si>
+  <si>
+    <t>AMC82505054889242</t>
+  </si>
+  <si>
+    <t>14122015</t>
+  </si>
+  <si>
+    <t>BBBBCCDABCCCAEEBCBCBCCCBD</t>
+  </si>
+  <si>
+    <t>010115</t>
+  </si>
+  <si>
+    <t>Vũ Lam</t>
+  </si>
+  <si>
+    <t>4D10</t>
+  </si>
+  <si>
+    <t>Tiểu học Chu Văn An</t>
+  </si>
+  <si>
+    <t>AMC82505054847466</t>
+  </si>
+  <si>
+    <t>13082015</t>
+  </si>
+  <si>
+    <t>BBCCCCDAB.CAE.DAAEDADEECA</t>
+  </si>
+  <si>
+    <t>010116</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Kỳ</t>
+  </si>
+  <si>
+    <t>Tiểu học Trần Nguyên Hãn</t>
+  </si>
+  <si>
+    <t>AMC82505054800730</t>
+  </si>
+  <si>
+    <t>04102015</t>
+  </si>
+  <si>
+    <t>ABABACDEDBBEACDBDCEEBCCEC</t>
+  </si>
+  <si>
+    <t>010117</t>
+  </si>
+  <si>
+    <t>Trần Thế</t>
+  </si>
+  <si>
+    <t>4A1</t>
+  </si>
+  <si>
+    <t>TH, THCS &amp; THPT Vinschool (Vinschool Golden River)</t>
+  </si>
+  <si>
+    <t>AMC82505054892495</t>
+  </si>
+  <si>
+    <t>02122015</t>
+  </si>
+  <si>
+    <t>CBDBACEDCDDABDDCEAEAAECDD</t>
+  </si>
+  <si>
+    <t>010118</t>
+  </si>
+  <si>
+    <t>Phạm Duy</t>
+  </si>
+  <si>
+    <t>3C1</t>
+  </si>
+  <si>
+    <t>Tiểu học &amp; THCS HWS</t>
+  </si>
+  <si>
+    <t>AMC82505054829099</t>
+  </si>
+  <si>
+    <t>10122015</t>
+  </si>
+  <si>
+    <t>010119</t>
+  </si>
+  <si>
+    <t>Ngô Đình</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>Tiểu học Nguyễn Bỉnh Khiêm</t>
+  </si>
+  <si>
+    <t>AMC82505054845337</t>
+  </si>
+  <si>
+    <t>02012015</t>
+  </si>
+  <si>
+    <t>BBEBECDDEECBDCEEABBEDCEAC</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>Trần Vũ Hoài</t>
+  </si>
+  <si>
+    <t>Tiểu học Đại Thắng</t>
+  </si>
+  <si>
+    <t>AMC82505054828150</t>
+  </si>
+  <si>
+    <t>08082015</t>
+  </si>
+  <si>
+    <t>BBBBCCDABCBAAEABCDDCAEDAD</t>
+  </si>
+  <si>
+    <t>010121</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức</t>
+  </si>
+  <si>
+    <t>4A5</t>
+  </si>
+  <si>
+    <t>Tiểu học Lê Hồng Phong</t>
+  </si>
+  <si>
+    <t>AMC82505054805302</t>
+  </si>
+  <si>
+    <t>08012015</t>
+  </si>
+  <si>
+    <t>BBCACBDDDDABADDECECDEBDEB</t>
+  </si>
+  <si>
+    <t>010122</t>
+  </si>
+  <si>
+    <t>Đào Tú</t>
+  </si>
+  <si>
+    <t>Tiểu học Trần Phú</t>
+  </si>
+  <si>
+    <t>AMC82505054877702</t>
+  </si>
+  <si>
+    <t>26032015</t>
+  </si>
+  <si>
+    <t>BBCBDCBBBEBCACA..B.E.....</t>
+  </si>
+  <si>
+    <t>010123</t>
+  </si>
+  <si>
+    <t>Lê Thị Phương</t>
+  </si>
+  <si>
+    <t>Ánh</t>
+  </si>
+  <si>
+    <t>Tiểu học Khánh Hồng</t>
+  </si>
+  <si>
+    <t>AMC82505054846944</t>
+  </si>
+  <si>
+    <t>06112015</t>
+  </si>
+  <si>
+    <t>BBBBCCDABBBBABAAACBBB....</t>
+  </si>
+  <si>
+    <t>010124</t>
+  </si>
+  <si>
+    <t>Lê Quang</t>
+  </si>
+  <si>
+    <t>Bách</t>
+  </si>
+  <si>
+    <t>Tiểu Học An Bình B</t>
+  </si>
+  <si>
+    <t>AMC82505054803647</t>
+  </si>
+  <si>
+    <t>05072015</t>
+  </si>
+  <si>
+    <t>BBCBCCBABDCDAECCDCAADBDBB</t>
+  </si>
+  <si>
+    <t>010125</t>
+  </si>
+  <si>
+    <t>Thái Hồng</t>
+  </si>
+  <si>
+    <t>Bàng</t>
+  </si>
+  <si>
+    <t>Tiểu học Trần Đại Nghĩa</t>
+  </si>
+  <si>
+    <t>AMC82505054831235</t>
+  </si>
+  <si>
+    <t>12082015</t>
+  </si>
+  <si>
+    <t>010126</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim</t>
+  </si>
+  <si>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>Tiểu học An Khánh</t>
+  </si>
+  <si>
+    <t>AMC82505054871007</t>
+  </si>
+  <si>
+    <t>13032015</t>
+  </si>
+  <si>
+    <t>EBCBCBECB.C..............</t>
+  </si>
+  <si>
+    <t>010127</t>
+  </si>
+  <si>
+    <t>Lê Viết</t>
+  </si>
+  <si>
+    <t>3A1</t>
+  </si>
+  <si>
+    <t>Liên cấp TH &amp; THCS Ngôi Sao Hà Nội</t>
+  </si>
+  <si>
+    <t>AMC82505054857532</t>
+  </si>
+  <si>
+    <t>03012015</t>
+  </si>
+  <si>
+    <t>010128</t>
+  </si>
+  <si>
+    <t>Vũ Nguyên</t>
+  </si>
+  <si>
+    <t>Tiểu học Lê Văn Tám</t>
+  </si>
+  <si>
+    <t>AMC82505054869172</t>
+  </si>
+  <si>
+    <t>15012015</t>
+  </si>
+  <si>
+    <t>010129</t>
+  </si>
+  <si>
+    <t>Phùng Gia</t>
+  </si>
+  <si>
+    <t>Tiểu học Phan Chu Trinh</t>
+  </si>
+  <si>
+    <t>AMC82505054846295</t>
+  </si>
+  <si>
+    <t>21072015</t>
+  </si>
+  <si>
+    <t>EBCBEDBEBADCCABCCAEABDCBE</t>
   </si>
 </sst>
 </file>
@@ -196,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,11 +723,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,7 +784,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,40 +1129,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,74 +1171,70 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -678,107 +1243,1275 @@
         <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10923</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10981</v>
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="1">
-        <v>10927</v>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  <conditionalFormatting sqref="B2:B70">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
